--- a/보고준비/20210913발표준비/시연자료/시연-1/hec_Space Planning_sample Program(0701).xlsx
+++ b/보고준비/20210913발표준비/시연자료/시연-1/hec_Space Planning_sample Program(0701).xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjmk0\Downloads\MK\mQ\보고준비\20210913발표준비\시연자료\시연-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1666CC-F01A-411F-B4B7-F95B44033B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="COLOR SELECTION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -799,7 +809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
@@ -1567,8 +1577,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 4" xfId="1"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="294">
     <dxf>
@@ -3786,8 +3796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18440400" y="676275"/>
-          <a:ext cx="3395098" cy="3643285"/>
+          <a:off x="18410704" y="683559"/>
+          <a:ext cx="3383893" cy="3691470"/>
           <a:chOff x="16354425" y="1790700"/>
           <a:chExt cx="3395098" cy="3814735"/>
         </a:xfrm>
@@ -4214,13 +4224,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I28" sqref="I28:I29"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28:I29"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4563,10 +4573,10 @@
         <v>6000</v>
       </c>
       <c r="G9" s="4">
-        <v>36000</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="4">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>23</v>
@@ -6268,12 +6278,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7861,7 +7871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
